--- a/Scripting of data/Weather Dataset/area geocode.xlsx
+++ b/Scripting of data/Weather Dataset/area geocode.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LINGXING\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LINGXING\Desktop\GIT\Va-Project\Scripting of data\Weather Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D46FC6F8-BEC8-4169-ACC0-8A5EF598D428}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB2A67E-BA1B-4600-9F58-817D4A1F69F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{347EC3BF-AD97-4A25-BD4F-8985C4F786A8}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +231,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -267,6 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,12 +593,16 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="18.41015625" customWidth="1"/>
+    <col min="1" max="1" width="3.76171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.76171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.8203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.29296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
@@ -605,7 +618,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2"/>
